--- a/Semana05-20AGO/NORMALIZACION.xlsx
+++ b/Semana05-20AGO/NORMALIZACION.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\CEPSUNI\CEPSUNI-DISBD-63948-DOMINGOS\Semana05-20AGO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F81C1B9-1D1B-453C-837E-A2FB07F0D8BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4448021-E9FF-4128-AEA0-7F74085D8E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{53F16C91-682B-477D-908E-C2C8347A763E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="37">
   <si>
     <t>RELACION UNIVERSAL</t>
   </si>
@@ -97,13 +97,52 @@
   </si>
   <si>
     <t>DETALLE</t>
+  </si>
+  <si>
+    <t>APLICANDO 2FN</t>
+  </si>
+  <si>
+    <t>Ya esta en 2FN.</t>
+  </si>
+  <si>
+    <t>ANALIZAR LAS DEPENDENCIAS</t>
+  </si>
+  <si>
+    <t>IDPRODUCTO -&gt; NOMPRODUCTO</t>
+  </si>
+  <si>
+    <t>(IDPEDIDO,IDPRODUCTO) -&gt; CANTIDAD</t>
+  </si>
+  <si>
+    <t>PRODUCTO</t>
+  </si>
+  <si>
+    <t>APLICANDO 3FN</t>
+  </si>
+  <si>
+    <t>Ya esta en 3FN</t>
+  </si>
+  <si>
+    <t>ANALISIS DE DEPENDENCIAS</t>
+  </si>
+  <si>
+    <t>IDPEDIDO -&gt; FECHA</t>
+  </si>
+  <si>
+    <t>IDCLIENTE -&gt; NOMCLIENTE</t>
+  </si>
+  <si>
+    <t>IDPEDIDO -&gt; IDCLIENTE</t>
+  </si>
+  <si>
+    <t>CLIENTE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,6 +177,29 @@
       <b/>
       <sz val="18"/>
       <color theme="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -242,7 +304,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -262,21 +324,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -287,6 +334,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -306,6 +374,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D99DBB51-5B9F-FF02-7C3A-BC4C03A1A9A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6118860" y="18318480"/>
+          <a:ext cx="6842760" cy="1882140"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -605,14 +739,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4883632C-DE8D-4EB6-AD36-2DE027456290}">
-  <dimension ref="A1:H950"/>
+  <dimension ref="A1:I947"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:H11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
     <col min="7" max="7" width="25.109375" customWidth="1"/>
@@ -627,11 +764,11 @@
       <c r="A2" s="2"/>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
@@ -657,16 +794,16 @@
       </c>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="7">
+      <c r="B5" s="14">
         <v>123</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="11">
         <v>39195</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="14">
         <v>10</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="14" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="6" t="s">
@@ -680,10 +817,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
       <c r="F6" s="6" t="s">
         <v>10</v>
       </c>
@@ -695,10 +832,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
       <c r="F7" s="6" t="s">
         <v>13</v>
       </c>
@@ -710,16 +847,16 @@
       </c>
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="7">
+      <c r="B8" s="14">
         <v>246</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="11">
         <v>39217</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="14">
         <v>20</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="6" t="s">
@@ -733,10 +870,10 @@
       </c>
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
       <c r="F9" s="6" t="s">
         <v>13</v>
       </c>
@@ -748,16 +885,16 @@
       </c>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="7">
+      <c r="B10" s="14">
         <v>280</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="11">
         <v>39237</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="14">
         <v>10</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="14" t="s">
         <v>18</v>
       </c>
       <c r="F10" s="6" t="s">
@@ -771,10 +908,10 @@
       </c>
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
       <c r="F11" s="6" t="s">
         <v>15</v>
       </c>
@@ -796,13 +933,13 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="9" t="s">
         <v>22</v>
       </c>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:8" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -820,7 +957,7 @@
       <c r="B16" s="6">
         <v>123</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="8">
         <v>39195</v>
       </c>
       <c r="D16" s="5">
@@ -831,11 +968,11 @@
       </c>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="2:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="6">
         <v>246</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="8">
         <v>39217</v>
       </c>
       <c r="D17" s="5">
@@ -845,11 +982,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="2:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="6">
         <v>280</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="8">
         <v>39237</v>
       </c>
       <c r="D18" s="5">
@@ -859,17 +996,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="2:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="2:7" s="1" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="14" t="s">
+    <row r="19" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:9" s="1" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="2:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="15" t="s">
+    <row r="21" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F21" s="4" t="s">
@@ -879,7 +1016,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="2:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D22" s="6">
         <v>123</v>
       </c>
@@ -892,8 +1029,11 @@
       <c r="G22" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="2:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I22" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D23" s="6">
         <v>123</v>
       </c>
@@ -906,8 +1046,11 @@
       <c r="G23" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="2:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I23" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D24" s="6">
         <v>123</v>
       </c>
@@ -920,8 +1063,11 @@
       <c r="G24" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="2:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I24" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D25" s="6">
         <v>246</v>
       </c>
@@ -935,7 +1081,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="2:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D26" s="6">
         <v>246</v>
       </c>
@@ -949,7 +1095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D27" s="6">
         <v>280</v>
       </c>
@@ -963,7 +1109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D28" s="6">
         <v>280</v>
       </c>
@@ -977,74 +1123,495 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="2:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="2:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="2:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="2:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:9" s="1" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="6">
+        <v>123</v>
+      </c>
+      <c r="C34" s="8">
+        <v>39195</v>
+      </c>
+      <c r="D34" s="6">
+        <v>10</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="6">
+        <v>246</v>
+      </c>
+      <c r="C35" s="8">
+        <v>39217</v>
+      </c>
+      <c r="D35" s="6">
+        <v>20</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="6">
+        <v>280</v>
+      </c>
+      <c r="C36" s="8">
+        <v>39237</v>
+      </c>
+      <c r="D36" s="6">
+        <v>10</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="2:7" s="1" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="6">
+        <v>123</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="6">
+        <v>123</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="6">
+        <v>123</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="6">
+        <v>246</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C44" s="6">
+        <v>246</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C45" s="6">
+        <v>280</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="6">
+        <v>280</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="2:7" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E48" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E49" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E50" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E51" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E52" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E53" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E54" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="1:6" s="1" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="1:6" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="6">
+        <v>10</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="6">
+        <v>20</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="6">
+        <v>10</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="1:6" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="6">
+        <v>123</v>
+      </c>
+      <c r="C66" s="8">
+        <v>39195</v>
+      </c>
+      <c r="D66" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="6">
+        <v>246</v>
+      </c>
+      <c r="C67" s="8">
+        <v>39217</v>
+      </c>
+      <c r="D67" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="6">
+        <v>280</v>
+      </c>
+      <c r="C68" s="8">
+        <v>39237</v>
+      </c>
+      <c r="D68" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" spans="2:4" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="6">
+        <v>123</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="6">
+        <v>123</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="6">
+        <v>123</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="6">
+        <v>246</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="6">
+        <v>246</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="6">
+        <v>280</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="6">
+        <v>280</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D78" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="2:4" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" spans="2:3" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" spans="2:3" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" spans="2:3" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" spans="2:3" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" spans="2:3" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" spans="2:3" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" spans="2:3" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" spans="2:3" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" spans="2:3" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="97" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="98" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="99" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1896,9 +2463,6 @@
     <row r="945" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="946" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="947" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="948" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="949" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="950" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="F3:H3"/>
@@ -1916,5 +2480,7 @@
     <mergeCell ref="D10:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>